--- a/Assets/Excel/AttackInfo.xlsx
+++ b/Assets/Excel/AttackInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C585F19-D01B-41C5-9D06-8F29B3F9AE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E1E86C-542D-4048-B68F-D6286294F115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="1872" windowWidth="14892" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="1020" windowWidth="11124" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>criticalRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultRamonSwordAttackInfo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -72,6 +76,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -434,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -474,13 +479,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -497,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -514,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -548,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -566,6 +571,23 @@
       </c>
       <c r="E7">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
